--- a/2024-3q/Малаенко Максим - Сводные оценки.xlsx
+++ b/2024-3q/Малаенко Максим - Сводные оценки.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="50">
   <si>
     <t>Имя</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Козловский Антон Викторовоч</t>
+  </si>
+  <si>
+    <t>Греков Игорь Александрович</t>
   </si>
 </sst>
 </file>
@@ -724,7 +727,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1482,38 +1485,80 @@
       </c>
     </row>
     <row r="12" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="B12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="C12" s="16">
+        <v>30</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="F12" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(NOT(EXACT(A12,"")),IF(G12=0,"D",IF(G12&lt;3.4,"C",IF(G12&lt;3.8,"B-",IF(G12&lt;4,"B",IF(G12&lt;4.3,"B+","A"))))),"-")</f>
+        <v>C</v>
       </c>
       <c r="G12" s="17">
         <f t="array" ref="G12">SUM(H12:X12*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="H12" s="16">
+        <v>5</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>3</v>
+      </c>
+      <c r="K12" s="16">
+        <v>2</v>
+      </c>
+      <c r="L12" s="16">
+        <v>4</v>
+      </c>
+      <c r="M12" s="16">
+        <v>2</v>
+      </c>
+      <c r="N12" s="16">
+        <v>2</v>
+      </c>
+      <c r="O12" s="16">
+        <v>2</v>
+      </c>
+      <c r="P12" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>2</v>
+      </c>
+      <c r="R12" s="16">
+        <v>4</v>
+      </c>
+      <c r="S12" s="16">
+        <v>5</v>
+      </c>
+      <c r="T12" s="16">
+        <v>5</v>
+      </c>
+      <c r="U12" s="16">
+        <v>5</v>
+      </c>
+      <c r="V12" s="16">
+        <v>4</v>
+      </c>
+      <c r="W12" s="16">
+        <v>5</v>
+      </c>
+      <c r="X12" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
@@ -4340,11 +4385,11 @@
       </c>
       <c r="B4" s="13">
         <f t="array" ref="B4">SUM(IF(Результаты!$E$4:$E$93=$A4,1,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!F$4:F$93=$A4,1,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="str">
         <f t="array" ref="D4">IF(SUM(IF(Результаты!$E$4:$E$90="С",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4425,11 +4470,11 @@
       </c>
       <c r="B9" s="15">
         <f>SUM(B3:B8)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4453,15 +4498,15 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <f>(C12-B12)/60</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C93)</f>
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Малаенко Максим - Сводные оценки.xlsx
+++ b/2024-3q/Малаенко Максим - Сводные оценки.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="51">
   <si>
     <t>Имя</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Греков Игорь Александрович</t>
+  </si>
+  <si>
+    <t>Некрашевич Александр Григорьевич</t>
   </si>
 </sst>
 </file>
@@ -726,8 +729,8 @@
   <dimension ref="A1:X93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,11 +1008,21 @@
         <v>47</v>
       </c>
       <c r="B5" s="18"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="16">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -1561,38 +1574,80 @@
       </c>
     </row>
     <row r="13" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="B13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="C13" s="16">
+        <v>30</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="F13" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(NOT(EXACT(A13,"")),IF(G13=0,"D",IF(G13&lt;3.4,"C",IF(G13&lt;3.8,"B-",IF(G13&lt;4,"B",IF(G13&lt;4.3,"B+","A"))))),"-")</f>
+        <v>B</v>
       </c>
       <c r="G13" s="17">
         <f t="array" ref="G13">SUM(H13:X13*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
+        <v>3.97</v>
+      </c>
+      <c r="H13" s="16">
+        <v>2</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
+        <v>3</v>
+      </c>
+      <c r="K13" s="16">
+        <v>5</v>
+      </c>
+      <c r="L13" s="16">
+        <v>5</v>
+      </c>
+      <c r="M13" s="16">
+        <v>4</v>
+      </c>
+      <c r="N13" s="16">
+        <v>3</v>
+      </c>
+      <c r="O13" s="16">
+        <v>4</v>
+      </c>
+      <c r="P13" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>3</v>
+      </c>
+      <c r="R13" s="16">
+        <v>4</v>
+      </c>
+      <c r="S13" s="16">
+        <v>5</v>
+      </c>
+      <c r="T13" s="16">
+        <v>5</v>
+      </c>
+      <c r="U13" s="16">
+        <v>5</v>
+      </c>
+      <c r="V13" s="16">
+        <v>4</v>
+      </c>
+      <c r="W13" s="16">
+        <v>4</v>
+      </c>
+      <c r="X13" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
@@ -4372,11 +4427,11 @@
       </c>
       <c r="B3" s="13">
         <f t="array" ref="B3">SUM(IF(Результаты!$E$4:$E$93=$A3,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="13">
         <f t="array" ref="C3">SUM(IF(Результаты!F$4:F$93=$A3,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4419,11 +4474,11 @@
       </c>
       <c r="B6" s="13">
         <f t="array" ref="B6">SUM(IF(Результаты!$E$4:$E$93=$A6,1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="13">
         <f t="array" ref="C6">SUM(IF(Результаты!F$4:F$93=$A6,1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="str">
         <f t="array" ref="D6">IF(SUM(IF(Результаты!$E$4:$E$90="В",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4470,11 +4525,11 @@
       </c>
       <c r="B9" s="15">
         <f>SUM(B3:B8)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4498,15 +4553,15 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <f>(C12-B12)/60</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C93)</f>
-        <v>260</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Малаенко Максим - Сводные оценки.xlsx
+++ b/2024-3q/Малаенко Максим - Сводные оценки.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="52">
   <si>
     <t>Имя</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Некрашевич Александр Григорьевич</t>
+  </si>
+  <si>
+    <t>Жогло Надежда Васильевна</t>
   </si>
 </sst>
 </file>
@@ -729,8 +732,8 @@
   <dimension ref="A1:X93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1650,38 +1653,80 @@
       </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="B14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="C14" s="16">
+        <v>30</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>B-</v>
       </c>
       <c r="G14" s="17">
         <f t="array" ref="G14">SUM(H14:X14*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
+        <v>3.52</v>
+      </c>
+      <c r="H14" s="16">
+        <v>2</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>4</v>
+      </c>
+      <c r="K14" s="16">
+        <v>3</v>
+      </c>
+      <c r="L14" s="16">
+        <v>4</v>
+      </c>
+      <c r="M14" s="16">
+        <v>3</v>
+      </c>
+      <c r="N14" s="16">
+        <v>3</v>
+      </c>
+      <c r="O14" s="16">
+        <v>4</v>
+      </c>
+      <c r="P14" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>3</v>
+      </c>
+      <c r="R14" s="16">
+        <v>3</v>
+      </c>
+      <c r="S14" s="16">
+        <v>4</v>
+      </c>
+      <c r="T14" s="16">
+        <v>5</v>
+      </c>
+      <c r="U14" s="16">
+        <v>5</v>
+      </c>
+      <c r="V14" s="16">
+        <v>4</v>
+      </c>
+      <c r="W14" s="16">
+        <v>3</v>
+      </c>
+      <c r="X14" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
@@ -4440,7 +4485,7 @@
       </c>
       <c r="B4" s="13">
         <f t="array" ref="B4">SUM(IF(Результаты!$E$4:$E$93=$A4,1,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!F$4:F$93=$A4,1,0))</f>
@@ -4461,7 +4506,7 @@
       </c>
       <c r="C5" s="13">
         <f t="array" ref="C5">SUM(IF(Результаты!F$4:F$93=$A5,1,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="str">
         <f t="array" ref="D5">IF(SUM(IF(Результаты!$E$4:$E$90="В-",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4525,11 +4570,11 @@
       </c>
       <c r="B9" s="15">
         <f>SUM(B3:B8)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4557,11 +4602,11 @@
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C93)</f>
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
